--- a/Script/PlotSol.xlsx
+++ b/Script/PlotSol.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitCodes\LinJuanJuan\Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB600CCA-9AC3-434C-B5D0-4CEBB8F3FE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAFDC3D-C606-452A-9AC7-90F0A909BCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="908" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="908" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HighDemand" sheetId="17" r:id="rId1"/>
-    <sheet name="LowDemand" sheetId="16" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId3"/>
-    <sheet name="Case1Obj" sheetId="13" r:id="rId4"/>
-    <sheet name="PlotCase1" sheetId="11" r:id="rId5"/>
-    <sheet name="objRank" sheetId="5" r:id="rId6"/>
-    <sheet name="objOpt" sheetId="2" r:id="rId7"/>
-    <sheet name="Case1&amp;Case5periodObj" sheetId="3" r:id="rId8"/>
-    <sheet name="sol" sheetId="1" r:id="rId9"/>
-    <sheet name="BaressNet" sheetId="4" r:id="rId10"/>
+    <sheet name="GeneralInput" sheetId="17" r:id="rId1"/>
+    <sheet name="GeneralForPlot" sheetId="19" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="18" r:id="rId3"/>
+    <sheet name="LowDemand" sheetId="16" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId5"/>
+    <sheet name="Case1Obj" sheetId="13" r:id="rId6"/>
+    <sheet name="PlotCase1" sheetId="11" r:id="rId7"/>
+    <sheet name="objRank" sheetId="5" r:id="rId8"/>
+    <sheet name="objOpt" sheetId="2" r:id="rId9"/>
+    <sheet name="Case1&amp;Case5periodObj" sheetId="3" r:id="rId10"/>
+    <sheet name="sol" sheetId="1" r:id="rId11"/>
+    <sheet name="BaressNet" sheetId="4" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">BaressNet!$D$5:$E$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">BaressNet!$D$5:$E$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="28">
   <si>
     <t>Seed</t>
   </si>
@@ -230,15 +232,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>167640</xdr:colOff>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>99060</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>563880</xdr:colOff>
+          <xdr:colOff>561975</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -248,7 +250,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -545,15 +547,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26534014-BFD5-4069-BCE4-52DF1B972A45}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -567,87 +569,828 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B2">
+        <v>73</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <f>C2+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">C3+1</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>19</v>
+      </c>
+      <c r="C13">
         <v>6</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
+      <c r="D13">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
+    <sortCondition ref="B2:B6"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A2025C-7361-491C-BD23-2EBB07B65B8C}">
+  <dimension ref="B3:Q23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>395.74799999999999</v>
+      </c>
+      <c r="G4" s="3">
+        <v>9.0967000000000006E-2</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>395.74799999999999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>9.0967000000000006E-2</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>395.74799999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>9.0967000000000006E-2</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>395.74799999999999</v>
+      </c>
+      <c r="G7" s="3">
+        <v>9.0967000000000006E-2</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>439.69</v>
+      </c>
+      <c r="G8" s="3">
+        <v>8.1875799999999999E-2</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>439.69</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8.1875799999999999E-2</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>395.74799999999999</v>
+      </c>
+      <c r="G10" s="3">
+        <v>9.0967000000000006E-2</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>395.74799999999999</v>
+      </c>
+      <c r="G11" s="3">
+        <v>9.0967000000000006E-2</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>395.74799999999999</v>
+      </c>
+      <c r="G12" s="4">
+        <v>9.0967000000000006E-2</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3">
+        <v>395.74799999999999</v>
+      </c>
+      <c r="G13" s="3">
+        <v>9.0967000000000006E-2</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>439.69</v>
+      </c>
+      <c r="G14" s="3">
+        <v>8.1875799999999999E-2</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>439.69</v>
+      </c>
+      <c r="G15" s="3">
+        <v>8.1875799999999999E-2</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <f>G2-1</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>C2+2</f>
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>G2+2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C6" si="0">G3-1</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="1">C3+2</f>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H6" si="2">G3+2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
+    <sortCondition ref="C2:C6"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A33986-D8B5-42A9-B0BA-23ECB9CD32A2}">
   <dimension ref="A1:O26"/>
   <sheetViews>
@@ -655,9 +1398,9 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +1435,7 @@
         <v>6.2412599999999999E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -727,7 +1470,7 @@
         <v>6.1027900000000003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -762,7 +1505,7 @@
         <v>6.6263199999999994E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -797,7 +1540,7 @@
         <v>7.0282200000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -832,7 +1575,7 @@
         <v>7.0282200000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -859,13 +1602,13 @@
         <v>2734.431</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H7">
         <f>SUM(H2:H6)</f>
         <v>2538.3789999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
         <v>1</v>
       </c>
@@ -882,7 +1625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
         <v>9</v>
       </c>
@@ -902,7 +1645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -940,7 +1683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -960,7 +1703,7 @@
         <v>87.683199999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -980,7 +1723,7 @@
         <v>90.547899999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1000,7 +1743,7 @@
         <v>85.370099999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
@@ -1020,7 +1763,7 @@
         <v>90.775400000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1040,7 +1783,7 @@
         <v>97.999700000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1050,7 +1793,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1064,7 +1807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I20" s="1">
         <v>0</v>
       </c>
@@ -1075,7 +1818,7 @@
         <v>526.09900000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I21" s="1">
         <v>0</v>
       </c>
@@ -1086,7 +1829,7 @@
         <v>576.80600000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I22" s="1">
         <v>0</v>
       </c>
@@ -1097,7 +1840,7 @@
         <v>589.89499999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I23" s="1">
         <v>0</v>
       </c>
@@ -1108,7 +1851,7 @@
         <v>318.00599999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I24" s="1">
         <v>0</v>
       </c>
@@ -1119,7 +1862,7 @@
         <v>318.00599999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I25" s="1">
         <v>0</v>
       </c>
@@ -1130,7 +1873,7 @@
         <v>512.221</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I26" s="1">
         <v>0</v>
       </c>
@@ -1153,16 +1896,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539FD6EF-C3D5-4065-AB41-C9437C3EE5F5}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8ED032-576D-4FB5-8C78-C236504EA628}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="D2" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1176,79 +1919,220 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <f>GeneralInput!A2</f>
+        <v>19</v>
       </c>
       <c r="B2">
+        <f>GeneralInput!B2</f>
+        <v>73</v>
+      </c>
+      <c r="C2">
+        <f>GeneralInput!C2+1</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>GeneralInput!D2+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>GeneralInput!A3</f>
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <f>GeneralInput!B3</f>
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <f>GeneralInput!C3+1</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>GeneralInput!D3+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>GeneralInput!A4</f>
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <f>GeneralInput!B4</f>
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <f>GeneralInput!C4+1</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f>GeneralInput!D4+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>GeneralInput!A5</f>
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <f>GeneralInput!B5</f>
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <f>GeneralInput!C5+1</f>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f>GeneralInput!D5+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>GeneralInput!A6</f>
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <f>GeneralInput!B6</f>
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <f>GeneralInput!C6+1</f>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f>GeneralInput!D6+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>GeneralInput!A7</f>
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <f>GeneralInput!B7</f>
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <f>GeneralInput!C7+1</f>
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <f>GeneralInput!D7+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>GeneralInput!A8</f>
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <f>GeneralInput!B8</f>
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <f>GeneralInput!C8+1</f>
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <f>GeneralInput!D8+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>GeneralInput!A9</f>
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <f>GeneralInput!B9</f>
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <f>GeneralInput!C9+1</f>
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <f>GeneralInput!D9+1</f>
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <f>C2+1</f>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>GeneralInput!A10</f>
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <f>GeneralInput!B10</f>
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <f>GeneralInput!C10+1</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">C3+1</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
+      <c r="D10">
+        <f>GeneralInput!D10+1</f>
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>GeneralInput!A11</f>
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <f>GeneralInput!B11</f>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f>GeneralInput!C11+1</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
+      <c r="D11">
+        <f>GeneralInput!D11+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>GeneralInput!A12</f>
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <f>GeneralInput!B12</f>
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <f>GeneralInput!C12+1</f>
         <v>6</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
+      <c r="D12">
+        <f>GeneralInput!D12+1</f>
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>GeneralInput!A13</f>
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <f>GeneralInput!B13</f>
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <f>GeneralInput!C13+1</f>
         <v>7</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>8</v>
+      <c r="D13">
+        <f>GeneralInput!D13+1</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1257,6 +2141,125 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544381C1-B21E-40CF-B824-199EB4D9C46E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539FD6EF-C3D5-4065-AB41-C9437C3EE5F5}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <f>C2+1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <f>C3+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <f>C4+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f>C5+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <f>C6+1</f>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
+    <sortCondition ref="B2:B6"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D2218D-016E-4075-9C49-095D23803DC1}">
   <dimension ref="C4:V57"/>
   <sheetViews>
@@ -1264,14 +2267,14 @@
       <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="6:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="6:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F5">
         <v>6</v>
       </c>
@@ -1288,7 +2291,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="6:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="6:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F6">
         <v>7</v>
       </c>
@@ -1323,7 +2326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="6:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F7">
         <v>5</v>
       </c>
@@ -1343,7 +2346,7 @@
         <v>395.74799999999999</v>
       </c>
     </row>
-    <row r="8" spans="6:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>8</v>
       </c>
@@ -1363,7 +2366,7 @@
         <v>395.74799999999999</v>
       </c>
     </row>
-    <row r="9" spans="6:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="6:20" x14ac:dyDescent="0.25">
       <c r="K9">
         <v>5</v>
       </c>
@@ -1380,7 +2383,7 @@
         <v>395.74799999999999</v>
       </c>
     </row>
-    <row r="10" spans="6:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="6:20" x14ac:dyDescent="0.25">
       <c r="K10">
         <v>8</v>
       </c>
@@ -1397,7 +2400,7 @@
         <v>439.69</v>
       </c>
     </row>
-    <row r="11" spans="6:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="6:20" x14ac:dyDescent="0.25">
       <c r="K11">
         <v>0</v>
       </c>
@@ -1414,7 +2417,7 @@
         <v>439.69</v>
       </c>
     </row>
-    <row r="12" spans="6:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="6:20" x14ac:dyDescent="0.25">
       <c r="K12">
         <v>1</v>
       </c>
@@ -1428,7 +2431,7 @@
         <v>9.0967000000000006E-2</v>
       </c>
     </row>
-    <row r="13" spans="6:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="6:20" x14ac:dyDescent="0.25">
       <c r="K13">
         <v>1</v>
       </c>
@@ -1442,7 +2445,7 @@
         <v>9.0967000000000006E-2</v>
       </c>
     </row>
-    <row r="14" spans="6:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="6:20" x14ac:dyDescent="0.25">
       <c r="K14">
         <v>1</v>
       </c>
@@ -1456,7 +2459,7 @@
         <v>9.0967000000000006E-2</v>
       </c>
     </row>
-    <row r="15" spans="6:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="6:20" x14ac:dyDescent="0.25">
       <c r="K15">
         <v>1</v>
       </c>
@@ -1470,7 +2473,7 @@
         <v>9.0967000000000006E-2</v>
       </c>
     </row>
-    <row r="16" spans="6:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="6:20" x14ac:dyDescent="0.25">
       <c r="K16">
         <v>1</v>
       </c>
@@ -1484,7 +2487,7 @@
         <v>8.1875799999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:22" x14ac:dyDescent="0.25">
       <c r="K17">
         <v>1</v>
       </c>
@@ -1510,7 +2513,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:22" x14ac:dyDescent="0.25">
       <c r="Q18">
         <v>0</v>
       </c>
@@ -1524,7 +2527,7 @@
         <v>5.1724100000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:22" x14ac:dyDescent="0.25">
       <c r="Q19">
         <v>0</v>
       </c>
@@ -1538,7 +2541,7 @@
         <v>6.1028100000000002E-2</v>
       </c>
     </row>
-    <row r="20" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:22" x14ac:dyDescent="0.25">
       <c r="Q20">
         <v>0</v>
       </c>
@@ -1552,7 +2555,7 @@
         <v>6.1028100000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:22" x14ac:dyDescent="0.25">
       <c r="Q21">
         <v>0</v>
       </c>
@@ -1566,7 +2569,7 @@
         <v>7.2292700000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:22" x14ac:dyDescent="0.25">
       <c r="M22" t="s">
         <v>17</v>
       </c>
@@ -1583,7 +2586,7 @@
         <v>6.8979399999999996E-2</v>
       </c>
     </row>
-    <row r="23" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:22" x14ac:dyDescent="0.25">
       <c r="M23" t="s">
         <v>18</v>
       </c>
@@ -1600,7 +2603,7 @@
         <v>5.1724100000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:22" x14ac:dyDescent="0.25">
       <c r="M24" t="s">
         <v>19</v>
       </c>
@@ -1617,7 +2620,7 @@
         <v>5.1724100000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:22" x14ac:dyDescent="0.25">
       <c r="M25" t="s">
         <v>20</v>
       </c>
@@ -1634,7 +2637,7 @@
         <v>6.1028300000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:22" x14ac:dyDescent="0.25">
       <c r="M26" t="s">
         <v>21</v>
       </c>
@@ -1651,7 +2654,7 @@
         <v>6.8979399999999996E-2</v>
       </c>
     </row>
-    <row r="27" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:22" x14ac:dyDescent="0.25">
       <c r="M27" t="s">
         <v>22</v>
       </c>
@@ -1668,7 +2671,7 @@
         <v>6.8979399999999996E-2</v>
       </c>
     </row>
-    <row r="28" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>0</v>
       </c>
@@ -1685,7 +2688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>0</v>
       </c>
@@ -1702,7 +2705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>0</v>
       </c>
@@ -1719,7 +2722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>0</v>
       </c>
@@ -1755,7 +2758,7 @@
         <v>521.89499999999998</v>
       </c>
     </row>
-    <row r="32" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>0</v>
       </c>
@@ -1800,7 +2803,7 @@
         <v>521.89499999999998</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>0</v>
       </c>
@@ -1826,7 +2829,7 @@
         <v>5.1724100000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D34">
         <v>0</v>
       </c>
@@ -1852,7 +2855,7 @@
         <v>5.1724100000000002E-2</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="K35">
         <v>0</v>
       </c>
@@ -1866,7 +2869,7 @@
         <v>5.1724100000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="K36">
         <v>0</v>
       </c>
@@ -1880,7 +2883,7 @@
         <v>5.1724100000000002E-2</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -1910,7 +2913,7 @@
         <v>3342.4120000000003</v>
       </c>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>0</v>
       </c>
@@ -1936,7 +2939,7 @@
         <v>5.1724100000000002E-2</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>0</v>
       </c>
@@ -1962,7 +2965,7 @@
         <v>5.1724100000000002E-2</v>
       </c>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>0</v>
       </c>
@@ -1988,7 +2991,7 @@
         <v>6.1028300000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>0</v>
       </c>
@@ -2014,7 +3017,7 @@
         <v>6.8979399999999996E-2</v>
       </c>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>0</v>
       </c>
@@ -2044,7 +3047,7 @@
         <v>3025.681</v>
       </c>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>0</v>
       </c>
@@ -2058,7 +3061,7 @@
         <v>7.2289199999999998E-2</v>
       </c>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -2072,7 +3075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>0</v>
       </c>
@@ -2086,7 +3089,7 @@
         <v>5.1724100000000002E-2</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>0</v>
       </c>
@@ -2100,7 +3103,7 @@
         <v>6.1027999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>0</v>
       </c>
@@ -2114,7 +3117,7 @@
         <v>6.1027999999999999E-2</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>0</v>
       </c>
@@ -2128,7 +3131,7 @@
         <v>7.2289199999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>0</v>
       </c>
@@ -2142,7 +3145,7 @@
         <v>6.8979399999999996E-2</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>1</v>
       </c>
@@ -2156,7 +3159,7 @@
         <v>5.1724100000000002E-2</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>1</v>
       </c>
@@ -2170,7 +3173,7 @@
         <v>5.1724100000000002E-2</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>1</v>
       </c>
@@ -2184,7 +3187,7 @@
         <v>6.1027900000000003E-2</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>1</v>
       </c>
@@ -2198,7 +3201,7 @@
         <v>6.8979399999999996E-2</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C57">
         <v>1</v>
       </c>
@@ -2224,15 +3227,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>167640</xdr:colOff>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>99060</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>563880</xdr:colOff>
+                <xdr:colOff>561975</xdr:colOff>
                 <xdr:row>22</xdr:row>
-                <xdr:rowOff>15240</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2246,7 +3249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB9644A-FF57-44A8-8E9A-34B9B433A569}">
   <dimension ref="A1:S21"/>
   <sheetViews>
@@ -2254,9 +3257,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2270,7 +3273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2284,7 +3287,7 @@
         <v>6.8427399999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2298,7 +3301,7 @@
         <v>6.8427399999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2312,7 +3315,7 @@
         <v>6.8427399999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2335,7 +3338,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2358,7 +3361,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2381,7 +3384,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2404,7 +3407,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2427,7 +3430,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2450,7 +3453,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -2473,7 +3476,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2496,7 +3499,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -2507,7 +3510,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -2518,7 +3521,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -2529,7 +3532,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2541,7 +3544,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -2553,7 +3556,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2573,7 +3576,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2593,7 +3596,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2611,7 +3614,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2631,11 +3634,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F06534-57B6-44A0-8A5C-B8D681309BA3}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -2643,9 +3646,9 @@
       <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2659,7 +3662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2674,7 +3677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2689,7 +3692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2704,7 +3707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2719,7 +3722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2739,7 +3742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAB047B-9447-4B31-9F16-B634DFCD1F74}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -2747,9 +3750,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2763,7 +3766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2777,7 +3780,7 @@
         <v>6.8427399999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2791,7 +3794,7 @@
         <v>6.8427399999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2805,7 +3808,7 @@
         <v>6.8427399999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2819,7 +3822,7 @@
         <v>5.1724100000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2833,7 +3836,7 @@
         <v>5.1724100000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2847,7 +3850,7 @@
         <v>6.1028300000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2861,7 +3864,7 @@
         <v>6.8979399999999996E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2875,7 +3878,7 @@
         <v>6.8979399999999996E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2889,7 +3892,7 @@
         <v>6.8427399999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -2903,7 +3906,7 @@
         <v>6.8427399999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2922,7 +3925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610B37CE-C5F0-458E-AF70-7FB664CB61ED}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -2930,9 +3933,9 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2946,7 +3949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2960,7 +3963,7 @@
         <v>6.8427399999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2974,7 +3977,7 @@
         <v>6.8427399999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2988,7 +3991,7 @@
         <v>6.8427399999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3002,7 +4005,7 @@
         <v>5.1724100000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -3016,7 +4019,7 @@
         <v>6.1028100000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3030,7 +4033,7 @@
         <v>6.1028100000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3044,7 +4047,7 @@
         <v>7.2292700000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3058,7 +4061,7 @@
         <v>6.8979399999999996E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3072,7 +4075,7 @@
         <v>6.8427399999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -3086,7 +4089,7 @@
         <v>6.8427399999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -3103,649 +4106,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A2025C-7361-491C-BD23-2EBB07B65B8C}">
-  <dimension ref="B3:Q23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>395.74799999999999</v>
-      </c>
-      <c r="G4" s="3">
-        <v>9.0967000000000006E-2</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>395.74799999999999</v>
-      </c>
-      <c r="G5" s="3">
-        <v>9.0967000000000006E-2</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3">
-        <v>395.74799999999999</v>
-      </c>
-      <c r="G6" s="3">
-        <v>9.0967000000000006E-2</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3">
-        <v>395.74799999999999</v>
-      </c>
-      <c r="G7" s="3">
-        <v>9.0967000000000006E-2</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
-        <v>439.69</v>
-      </c>
-      <c r="G8" s="3">
-        <v>8.1875799999999999E-2</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>439.69</v>
-      </c>
-      <c r="G9" s="3">
-        <v>8.1875799999999999E-2</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>395.74799999999999</v>
-      </c>
-      <c r="G10" s="3">
-        <v>9.0967000000000006E-2</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>395.74799999999999</v>
-      </c>
-      <c r="G11" s="3">
-        <v>9.0967000000000006E-2</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2</v>
-      </c>
-      <c r="F12" s="4">
-        <v>395.74799999999999</v>
-      </c>
-      <c r="G12" s="4">
-        <v>9.0967000000000006E-2</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>3</v>
-      </c>
-      <c r="F13" s="3">
-        <v>395.74799999999999</v>
-      </c>
-      <c r="G13" s="3">
-        <v>9.0967000000000006E-2</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>439.69</v>
-      </c>
-      <c r="G14" s="3">
-        <v>8.1875799999999999E-2</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>439.69</v>
-      </c>
-      <c r="G15" s="3">
-        <v>8.1875799999999999E-2</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <f>G2-1</f>
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f>C2+2</f>
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <f>G2+2</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C6" si="0">G3-1</f>
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D6" si="1">C3+2</f>
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H6" si="2">G3+2</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
-    <sortCondition ref="C2:C6"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>